--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -30,7 +30,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/MyCIBMTRPatient</t>
+    <t>http://example.org/ig/example/StructureDefinition/MyCIBMTRPatient</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T09:15:43-05:00</t>
+    <t>2023-04-26T11:15:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/MyUSCorePatient</t>
+    <t>http://example.org/ig/example/StructureDefinition/MyUSCorePatient</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -2091,7 +2091,7 @@
     <t>MyTestPatient</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/MyTestPatient</t>
+    <t>http://example.org/ig/example/StructureDefinition/MyTestPatient</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/Patient</t>
@@ -2142,7 +2142,7 @@
     <t>cmv-observation</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/cmv-observation</t>
+    <t>http://example.org/ig/example/StructureDefinition/cmv-observation</t>
   </si>
   <si>
     <t>CMVObservation</t>
@@ -2154,7 +2154,7 @@
     <t>Observation</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/my-observation</t>
+    <t>http://example.org/ig/example/StructureDefinition/my-observation</t>
   </si>
   <si>
     <t>Vital Signs
@@ -2376,13 +2376,13 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/cmv-vs</t>
+    <t>http://example.org/ig/example/ValueSet/cmv-vs</t>
   </si>
   <si>
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/my-patient)
+    <t xml:space="preserve">Reference(http://example.org/ig/example/StructureDefinition/my-patient)
 </t>
   </si>
   <si>
@@ -2885,13 +2885,13 @@
     <t>cmv-presence-observation</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/cmv-presence-observation</t>
+    <t>http://example.org/ig/example/StructureDefinition/cmv-presence-observation</t>
   </si>
   <si>
     <t>CMVPresenceObservation</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/cmv-presence-vs</t>
+    <t>http://example.org/ig/example/ValueSet/cmv-presence-vs</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -2907,13 +2907,13 @@
     <t>valueCodeableConcept</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/presence-valueset</t>
+    <t>http://example.org/ig/example/ValueSet/presence-valueset</t>
   </si>
   <si>
     <t>number-of-remissions</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/number-of-remissions</t>
+    <t>http://example.org/ig/example/StructureDefinition/number-of-remissions</t>
   </si>
   <si>
     <t>NumberOfRemissions</t>
@@ -2983,7 +2983,7 @@
     <t>my-diagnosis</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/my-diagnosis</t>
+    <t>http://example.org/ig/example/StructureDefinition/my-diagnosis</t>
   </si>
   <si>
     <t>MyDiagnosis</t>
@@ -3097,7 +3097,7 @@
     <t>Condition.extension:NumberOfRemissions</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/number-of-remissions}
+    <t xml:space="preserve">Extension {http://example.org/ig/example/StructureDefinition/number-of-remissions}
 </t>
   </si>
   <si>
@@ -3210,7 +3210,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/hematopoietic-disorder-vs</t>
+    <t>http://example.org/ig/example/ValueSet/hematopoietic-disorder-vs</t>
   </si>
   <si>
     <t>Condition.bodySite</t>
@@ -3454,7 +3454,7 @@
     <t>my-bundle</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/my-bundle</t>
+    <t>http://example.org/ig/example/StructureDefinition/my-bundle</t>
   </si>
   <si>
     <t>MyBundle</t>
@@ -3977,7 +3977,7 @@
     <t>Bundle.entry:mypatient.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Patient {http://example.org/StructureDefinition/my-patient}
+    <t xml:space="preserve">Patient {http://example.org/ig/example/StructureDefinition/my-patient}
 </t>
   </si>
   <si>
@@ -4090,7 +4090,7 @@
     <t>Bundle.entry:myobservation.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {http://example.org/StructureDefinition/my-observation}
+    <t xml:space="preserve">Observation {http://example.org/ig/example/StructureDefinition/my-observation}
 </t>
   </si>
   <si>
@@ -4203,7 +4203,7 @@
     <t>Bundle.entry:mydiagnosis.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Condition {http://example.org/StructureDefinition/my-diagnosis}
+    <t xml:space="preserve">Condition {http://example.org/ig/example/StructureDefinition/my-diagnosis}
 </t>
   </si>
   <si>
@@ -4308,7 +4308,7 @@
     <t>my-patient</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/my-patient</t>
+    <t>http://example.org/ig/example/StructureDefinition/my-patient</t>
   </si>
   <si>
     <t>MyPatient</t>
@@ -6032,7 +6032,7 @@
     <col min="24" max="24" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="163.27734375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="52.28125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="62.41015625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="48.5546875" customWidth="true" bestFit="true"/>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -30,7 +30,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/ig/example/StructureDefinition/MyCIBMTRPatient</t>
+    <t>http://example.org/ig/exampleig/StructureDefinition/MyCIBMTRPatient</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-26T11:15:05-05:00</t>
+    <t>2023-04-27T11:07:01-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://example.org/ig/example/StructureDefinition/MyUSCorePatient</t>
+    <t>http://example.org/ig/exampleig/StructureDefinition/MyUSCorePatient</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -2091,7 +2091,7 @@
     <t>MyTestPatient</t>
   </si>
   <si>
-    <t>http://example.org/ig/example/StructureDefinition/MyTestPatient</t>
+    <t>http://example.org/ig/exampleig/StructureDefinition/MyTestPatient</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/Patient</t>
@@ -2142,7 +2142,7 @@
     <t>cmv-observation</t>
   </si>
   <si>
-    <t>http://example.org/ig/example/StructureDefinition/cmv-observation</t>
+    <t>http://example.org/ig/exampleig/StructureDefinition/cmv-observation</t>
   </si>
   <si>
     <t>CMVObservation</t>
@@ -2154,7 +2154,7 @@
     <t>Observation</t>
   </si>
   <si>
-    <t>http://example.org/ig/example/StructureDefinition/my-observation</t>
+    <t>http://example.org/ig/exampleig/StructureDefinition/my-observation</t>
   </si>
   <si>
     <t>Vital Signs
@@ -2376,13 +2376,13 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://example.org/ig/example/ValueSet/cmv-vs</t>
+    <t>http://example.org/ig/exampleig/ValueSet/cmv-vs</t>
   </si>
   <si>
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.org/ig/example/StructureDefinition/my-patient)
+    <t xml:space="preserve">Reference(http://example.org/ig/exampleig/StructureDefinition/my-patient)
 </t>
   </si>
   <si>
@@ -2885,13 +2885,13 @@
     <t>cmv-presence-observation</t>
   </si>
   <si>
-    <t>http://example.org/ig/example/StructureDefinition/cmv-presence-observation</t>
+    <t>http://example.org/ig/exampleig/StructureDefinition/cmv-presence-observation</t>
   </si>
   <si>
     <t>CMVPresenceObservation</t>
   </si>
   <si>
-    <t>http://example.org/ig/example/ValueSet/cmv-presence-vs</t>
+    <t>http://example.org/ig/exampleig/ValueSet/cmv-presence-vs</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -2907,13 +2907,13 @@
     <t>valueCodeableConcept</t>
   </si>
   <si>
-    <t>http://example.org/ig/example/ValueSet/presence-valueset</t>
+    <t>http://example.org/ig/exampleig/ValueSet/presence-valueset</t>
   </si>
   <si>
     <t>number-of-remissions</t>
   </si>
   <si>
-    <t>http://example.org/ig/example/StructureDefinition/number-of-remissions</t>
+    <t>http://example.org/ig/exampleig/StructureDefinition/number-of-remissions</t>
   </si>
   <si>
     <t>NumberOfRemissions</t>
@@ -2983,7 +2983,7 @@
     <t>my-diagnosis</t>
   </si>
   <si>
-    <t>http://example.org/ig/example/StructureDefinition/my-diagnosis</t>
+    <t>http://example.org/ig/exampleig/StructureDefinition/my-diagnosis</t>
   </si>
   <si>
     <t>MyDiagnosis</t>
@@ -3097,7 +3097,7 @@
     <t>Condition.extension:NumberOfRemissions</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/ig/example/StructureDefinition/number-of-remissions}
+    <t xml:space="preserve">Extension {http://example.org/ig/exampleig/StructureDefinition/number-of-remissions}
 </t>
   </si>
   <si>
@@ -3210,7 +3210,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>http://example.org/ig/example/ValueSet/hematopoietic-disorder-vs</t>
+    <t>http://example.org/ig/exampleig/ValueSet/hematopoietic-disorder-vs</t>
   </si>
   <si>
     <t>Condition.bodySite</t>
@@ -3454,7 +3454,7 @@
     <t>my-bundle</t>
   </si>
   <si>
-    <t>http://example.org/ig/example/StructureDefinition/my-bundle</t>
+    <t>http://example.org/ig/exampleig/StructureDefinition/my-bundle</t>
   </si>
   <si>
     <t>MyBundle</t>
@@ -3977,7 +3977,7 @@
     <t>Bundle.entry:mypatient.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Patient {http://example.org/ig/example/StructureDefinition/my-patient}
+    <t xml:space="preserve">Patient {http://example.org/ig/exampleig/StructureDefinition/my-patient}
 </t>
   </si>
   <si>
@@ -4090,7 +4090,7 @@
     <t>Bundle.entry:myobservation.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {http://example.org/ig/example/StructureDefinition/my-observation}
+    <t xml:space="preserve">Observation {http://example.org/ig/exampleig/StructureDefinition/my-observation}
 </t>
   </si>
   <si>
@@ -4203,7 +4203,7 @@
     <t>Bundle.entry:mydiagnosis.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Condition {http://example.org/ig/example/StructureDefinition/my-diagnosis}
+    <t xml:space="preserve">Condition {http://example.org/ig/exampleig/StructureDefinition/my-diagnosis}
 </t>
   </si>
   <si>
@@ -4308,7 +4308,7 @@
     <t>my-patient</t>
   </si>
   <si>
-    <t>http://example.org/ig/example/StructureDefinition/my-patient</t>
+    <t>http://example.org/ig/exampleig/StructureDefinition/my-patient</t>
   </si>
   <si>
     <t>MyPatient</t>
@@ -6032,7 +6032,7 @@
     <col min="24" max="24" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="163.27734375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="62.41015625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="63.953125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="48.5546875" customWidth="true" bestFit="true"/>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T11:07:01-05:00</t>
+    <t>2023-04-28T11:00:43-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
